--- a/INTERSEMESTRAL 1/Modelado de Datos y ETL/SEMANA 4/PlantillaDiseñoETL.xlsx
+++ b/INTERSEMESTRAL 1/Modelado de Datos y ETL/SEMANA 4/PlantillaDiseñoETL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/U1037319/Desktop/INFORMACION/MAESTRIA-ANALITICA-INTELIGENCIA-DATOS/INTERSEMESTRAL 1/Modelado de Datos y ETL/SEMANA 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B2D408-5FED-AC45-B77F-375D4837537F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C91721-0CC7-014B-B76A-4E2A47A09E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
   <si>
     <t>Inspirada en el trabajo realizado por el Grupo Krusty_Brand202214</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Hecho_Movimiento</t>
   </si>
   <si>
-    <t>* proveedoresCopia, CategoriasProovedor</t>
-  </si>
-  <si>
     <t xml:space="preserve">* proveedoresCopia: </t>
   </si>
   <si>
@@ -128,6 +125,18 @@
   </si>
   <si>
     <t>* ID_Proveedor_DWH,  ID_Proveedor_T , Nombre, Categoria, Contacto_principal, Dias_pago, Codigo_postal</t>
+  </si>
+  <si>
+    <t>* proveedoresCopia, CategoriasProovedores, Personas</t>
+  </si>
+  <si>
+    <t>*Personas:</t>
+  </si>
+  <si>
+    <t>ID_persona, NombreCompleto</t>
+  </si>
+  <si>
+    <t>NombreFavorito, EsEmpleado, EsVendedor</t>
   </si>
 </sst>
 </file>
@@ -211,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -223,6 +232,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -230,13 +248,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -266,15 +278,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
+      <xdr:colOff>396875</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3492500</xdr:colOff>
+      <xdr:colOff>3683000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -289,8 +301,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5019675" y="1295400"/>
-          <a:ext cx="2701925" cy="323850"/>
+          <a:off x="4778375" y="1270000"/>
+          <a:ext cx="3286125" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -326,7 +338,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>proveedoresCopia, CategoriasProovedor</a:t>
+            <a:t>proveedoresCopia, CategoriasProovedores, Personas</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -344,15 +356,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1781175</xdr:colOff>
+      <xdr:colOff>2362200</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
+      <xdr:colOff>396875</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -369,8 +381,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2657475" y="1438275"/>
-          <a:ext cx="2362200" cy="19050"/>
+          <a:off x="3238500" y="1422400"/>
+          <a:ext cx="1539875" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -406,8 +418,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3924301</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -422,8 +434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381501" y="2438400"/>
-          <a:ext cx="3771900" cy="1574800"/>
+          <a:off x="4533901" y="2438400"/>
+          <a:ext cx="3771900" cy="2565400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -456,6 +468,25 @@
             </a:rPr>
             <a:t>T1. Renombrar columnas de tablas:</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tabla proveedoresCopia:</a:t>
+          </a:r>
           <a:br>
             <a:rPr lang="es-CO" sz="1100">
               <a:solidFill>
@@ -482,9 +513,102 @@
             </a:rPr>
             <a:t>NombreProveedor -&gt; Nombre</a:t>
           </a:r>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DiasPago -&gt; Dias_pago</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CodigoPostal -&gt; Codigo_postal</a:t>
+          </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tabla</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> CategiriasProveedores:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="es-CO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
           <a:r>
             <a:rPr lang="es-CO" sz="1100">
               <a:solidFill>
@@ -495,53 +619,106 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="es-CO" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>PersonaContactoPrincipalID</a:t>
+            <a:t>Tabla Personas:</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> -&gt; Contacto_principal</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="es-CO" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="es-CO" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>DiasPago -&gt; Dias_pago</a:t>
+            <a:t>NombreCompleto -&gt; Contacto_principal</a:t>
           </a:r>
-          <a:br>
-            <a:rPr lang="es-CO" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>CodigoPostal -&gt; Codigo_postal</a:t>
-          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -550,15 +727,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2141538</xdr:colOff>
+      <xdr:colOff>2032000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2146300</xdr:colOff>
+      <xdr:colOff>2039938</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -574,9 +751,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6370638" y="1619250"/>
-          <a:ext cx="4762" cy="552450"/>
+        <a:xfrm flipH="1">
+          <a:off x="6413500" y="1593850"/>
+          <a:ext cx="7938" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -605,15 +782,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3924299</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>3848099</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -628,8 +805,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419600" y="4159250"/>
-          <a:ext cx="3733799" cy="527050"/>
+          <a:off x="4495800" y="5340350"/>
+          <a:ext cx="3733799" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1827,15 +2004,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2209800</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>2159000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1858,7 +2035,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104900" y="5854700"/>
+          <a:off x="1054100" y="7683500"/>
           <a:ext cx="1981200" cy="2095500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1871,15 +2048,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3898899</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>3886199</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1894,7 +2071,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4394200" y="4895850"/>
+          <a:off x="4533900" y="6800850"/>
           <a:ext cx="3733799" cy="527050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1942,7 +2119,104 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>T3. Adicionar columna llamada ID_Proveedor_DWH y numerarla acorde con la cantidad de registros que existan</a:t>
+            <a:t>T4. Adicionar columna llamada ID_Proveedor_DWH y numerarla acorde con la cantidad de registros que existan</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3848099</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectángulo redondeado 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0801424D-6667-154F-AFB1-8062F53AE1B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="6032500"/>
+          <a:ext cx="3733799" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T3. Hacer join de tablas proveedoresCopia</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> personas basado en PersonaContactoPrincipalID y  ID_persona</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2266,13 +2540,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="53.83203125" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45.33203125" customWidth="1"/>
@@ -2288,43 +2562,43 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="F4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="J4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="N4" s="10" t="s">
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="N4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -2353,8 +2627,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>18</v>
+      <c r="B7" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="4"/>
       <c r="F7" s="2" t="s">
@@ -2371,7 +2645,7 @@
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
+      <c r="B8" s="14"/>
       <c r="D8" s="4"/>
       <c r="F8" s="1"/>
       <c r="H8" s="4"/>
@@ -2400,7 +2674,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -2414,7 +2688,7 @@
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
@@ -2494,7 +2768,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="4"/>
       <c r="H16" s="4"/>
@@ -2503,7 +2777,7 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4"/>
       <c r="H17" s="4"/>
@@ -2518,8 +2792,8 @@
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>8</v>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D19" s="4"/>
       <c r="H19" s="4"/>
@@ -2528,7 +2802,7 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D20" s="4"/>
       <c r="H20" s="4"/>
@@ -2536,24 +2810,28 @@
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="D21" s="4"/>
       <c r="H21" s="4"/>
       <c r="L21" s="4"/>
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="11"/>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="11"/>
+    <row r="24" spans="2:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
@@ -2600,14 +2878,14 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="12"/>
+      <c r="B29" s="11"/>
       <c r="D29" s="4"/>
       <c r="H29" s="6"/>
       <c r="L29" s="6"/>
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="12"/>
+      <c r="B30" s="11"/>
       <c r="D30" s="4"/>
       <c r="H30" s="6" t="s">
         <v>12</v>
@@ -2620,6 +2898,9 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="H31" s="8" t="s">
         <v>5</v>
@@ -2631,7 +2912,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="H32" s="8" t="s">
         <v>6</v>
@@ -2643,59 +2927,67 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
       <c r="D33" s="4"/>
       <c r="H33" s="6"/>
       <c r="L33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
       <c r="D34" s="4"/>
       <c r="H34" s="6"/>
       <c r="L34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D35" s="4"/>
       <c r="H35" s="6"/>
       <c r="L35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D37" s="4"/>
     </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D42" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D43" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D44" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="4:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D46" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="4:16" ht="32" x14ac:dyDescent="0.2">
-      <c r="D47" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="D47" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D48" s="8"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.2">
@@ -2708,14 +3000,15 @@
       <c r="D51" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B24:B30"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B21:B28"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/INTERSEMESTRAL 1/Modelado de Datos y ETL/SEMANA 4/PlantillaDiseñoETL.xlsx
+++ b/INTERSEMESTRAL 1/Modelado de Datos y ETL/SEMANA 4/PlantillaDiseñoETL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/U1037319/Desktop/INFORMACION/MAESTRIA-ANALITICA-INTELIGENCIA-DATOS/INTERSEMESTRAL 1/Modelado de Datos y ETL/SEMANA 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C91721-0CC7-014B-B76A-4E2A47A09E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67DD754-8C01-B945-988B-A8FD1E3EDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>Inspirada en el trabajo realizado por el Grupo Krusty_Brand202214</t>
   </si>
@@ -48,18 +48,9 @@
     <t xml:space="preserve">1. Extraer información de </t>
   </si>
   <si>
-    <t>* NombreFuente</t>
-  </si>
-  <si>
     <t>Campos a incluir:</t>
   </si>
   <si>
-    <t>* NombreCampo1</t>
-  </si>
-  <si>
-    <t>*…</t>
-  </si>
-  <si>
     <t>2. Transformaciones</t>
   </si>
   <si>
@@ -70,9 +61,6 @@
   </si>
   <si>
     <t>Destino de los datos:</t>
-  </si>
-  <si>
-    <t>* NombreDestino</t>
   </si>
   <si>
     <t>Campos a cargar:</t>
@@ -100,9 +88,6 @@
     <t>tipoTransaccion</t>
   </si>
   <si>
-    <t>fecha</t>
-  </si>
-  <si>
     <t>Hecho_Movimiento</t>
   </si>
   <si>
@@ -137,6 +122,108 @@
   </si>
   <si>
     <t>NombreFavorito, EsEmpleado, EsVendedor</t>
+  </si>
+  <si>
+    <t>* TiposTransaccion</t>
+  </si>
+  <si>
+    <t>* TipoTransaccionID</t>
+  </si>
+  <si>
+    <t>*TipoTransaccionNombre</t>
+  </si>
+  <si>
+    <t>* TipoTransaccion</t>
+  </si>
+  <si>
+    <t>* ID_Tipo_transaccion_DWH</t>
+  </si>
+  <si>
+    <t>*ID_Tipo_transaccion_T</t>
+  </si>
+  <si>
+    <t>*Tipo</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>* MovimientosCopia</t>
+  </si>
+  <si>
+    <t>* FechaTransaccion</t>
+  </si>
+  <si>
+    <t>* TransaccionProductoID, ProductoID, TipoTransaccionID, ClienteID, InvoiceID, ProveedorID, OrdenDeCompraID, Cantidad</t>
+  </si>
+  <si>
+    <t>* Fecha</t>
+  </si>
+  <si>
+    <t>* Fecha: ID_Fecha</t>
+  </si>
+  <si>
+    <t>* Producto</t>
+  </si>
+  <si>
+    <t>* Cliente</t>
+  </si>
+  <si>
+    <t>* tipoTransaccion</t>
+  </si>
+  <si>
+    <t>* Proveedor: ID_Proveedor_DWH</t>
+  </si>
+  <si>
+    <t>* Cliente: ID_Cliente_DWH</t>
+  </si>
+  <si>
+    <t>* tipoTransaccion: ID_Tipo_transaccion_DWH</t>
+  </si>
+  <si>
+    <t>* Fecha: Fecha, Dia, Mes, Anioa, Numero_semana_ISO</t>
+  </si>
+  <si>
+    <t>* Producto: ID_Producto_T, NombreProducto, Marca, ID_Color, Necesita_refrigeracion, Dias_tiempo_entrega, Impuesto, PrecioUnitario, PrecioRecomendado</t>
+  </si>
+  <si>
+    <t>* Proveedor: ID_Proveedor_T, Nombre, Categoria, Contacto_principal, Dias_pago, Codigo_postal</t>
+  </si>
+  <si>
+    <t>* Cliente: ID_Cliente_T, Nombre, ClienteFactura, ID_Categoria ,ID_GrupoCompra, ID_CiudadEntrega , LimiteCredito, FechaAperturaCuenta, DiasPago</t>
+  </si>
+  <si>
+    <t>* tipoTransaccion: ID_Tipo_transaccion_t, Tipo</t>
+  </si>
+  <si>
+    <t>* ID_Fecha</t>
+  </si>
+  <si>
+    <t>* Dia</t>
+  </si>
+  <si>
+    <t>* Mes</t>
+  </si>
+  <si>
+    <t>*Anioa</t>
+  </si>
+  <si>
+    <t>* Numero_semana_ISO</t>
+  </si>
+  <si>
+    <t>* MovimientosCopia: ProductoID, TipoTransaccionID, ClienteID, ProveedorID, FechaTransaccion, Cantidad</t>
+  </si>
+  <si>
+    <t>* MovimientosCopia: TransaccionProductoID, ClienteID, ProveedorID</t>
+  </si>
+  <si>
+    <t>* Producto: ID_Producto</t>
+  </si>
+  <si>
+    <t>* Hecho_Movimiento</t>
+  </si>
+  <si>
+    <t>* ID_Fecha, ID_Producto_DWH,  ID_Proveedor_DWH, ID_Cliente_DWH, ID_Tipo_transaccion_DWH y Cantidad</t>
   </si>
 </sst>
 </file>
@@ -220,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -249,6 +336,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,7 +1029,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Fuente de datos</a:t>
+            <a:t>TiposTransaccion</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1004,15 +1094,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2552700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>3378199</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1027,8 +1117,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5705475" y="2438400"/>
-          <a:ext cx="1762125" cy="323850"/>
+          <a:off x="11899900" y="2413000"/>
+          <a:ext cx="3251199" cy="774700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1059,63 +1149,9 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>T1. Descripción detallada</a:t>
+            <a:t>T1. Renombrar columnas :</a:t>
           </a:r>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2571750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectángulo redondeado 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5724525" y="3657600"/>
-          <a:ext cx="1762125" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -1124,7 +1160,18 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Tn. Descripción detallada</a:t>
+            <a:t>TipoTransaccionID -&gt; ID_Tipo_transaccion_T</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TipoTransaccionNombre -&gt; Tipo</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1189,15 +1236,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2571750</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>3340099</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1212,8 +1259,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5724525" y="2914650"/>
-          <a:ext cx="1762125" cy="323850"/>
+          <a:off x="11925300" y="3270250"/>
+          <a:ext cx="3187699" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1244,7 +1291,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>T2. Descripción detallada</a:t>
+            <a:t>T2. Adicionar columna llamada ID_Tipo_transaccion_DWH y numerarla acorde con la cantidad de registros que existan</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1314,7 +1361,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Fuente de datos</a:t>
+            <a:t>MovimientosCopia</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1379,15 +1426,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2552700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>3776134</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1402,8 +1449,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5705475" y="2438400"/>
-          <a:ext cx="1762125" cy="323850"/>
+          <a:off x="19244733" y="3158067"/>
+          <a:ext cx="3623734" cy="499533"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1434,73 +1481,21 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>T1. Descripción detallada</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2571750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectángulo redondeado 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5724525" y="3657600"/>
-          <a:ext cx="1762125" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Tn. Descripción detallada</a:t>
-          </a:r>
+            <a:t>T2. Transformacion de Fechas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> que no cumplen el formato YYYY-MM-DD</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1564,15 +1559,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>143935</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>150284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2571750</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>3784601</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1587,8 +1582,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5724525" y="2914650"/>
-          <a:ext cx="1762125" cy="323850"/>
+          <a:off x="19236268" y="2487084"/>
+          <a:ext cx="3640666" cy="518583"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1619,7 +1614,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>T2. Descripción detallada</a:t>
+            <a:t>T1. Cambiar el nombre de la columna FechaTransaccion por Fecha</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1629,15 +1624,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
+      <xdr:colOff>116513</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>2552700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>3367247</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104862</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1652,8 +1647,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19281775" y="1295400"/>
-          <a:ext cx="1762125" cy="323850"/>
+          <a:off x="27706972" y="1270931"/>
+          <a:ext cx="3250734" cy="511729"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1689,8 +1684,16 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Fuente de datos</a:t>
-          </a:r>
+            <a:t>Fecha, Producto, Proveedor, Cliente, tipoTransaccion, MovimientosCopia</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1699,15 +1702,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1781175</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>1817414</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>32833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>116513</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>54741</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1723,9 +1726,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="17325975" y="1438275"/>
-          <a:ext cx="1955800" cy="19050"/>
+        <a:xfrm flipH="1">
+          <a:off x="25635388" y="1565592"/>
+          <a:ext cx="2070780" cy="21908"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1754,15 +1757,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>75259</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>2552700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>3367852</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1777,8 +1780,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19281775" y="2438400"/>
-          <a:ext cx="1762125" cy="323850"/>
+          <a:off x="27648370" y="2786474"/>
+          <a:ext cx="3292593" cy="581378"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1809,7 +1812,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>T1. Descripción detallada</a:t>
+            <a:t>T1. Transformar el tupo de valor de la columna ProveedorID a entero</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1819,15 +1822,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>141112</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>113359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>2571750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>3377260</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>37629</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1842,8 +1845,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19300825" y="3657600"/>
-          <a:ext cx="1762125" cy="323850"/>
+          <a:off x="27714223" y="4252618"/>
+          <a:ext cx="3236148" cy="516937"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1874,8 +1877,21 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Tn. Descripción detallada</a:t>
-          </a:r>
+            <a:t>T3. Hacer Join entre</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> tabla de Hechos_Movimiento y Producto</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1884,15 +1900,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1671638</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>1829266</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>1835091</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>11652</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1903,14 +1919,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20162838" y="1619250"/>
-          <a:ext cx="4762" cy="514350"/>
+        <a:xfrm flipH="1">
+          <a:off x="29419725" y="1782660"/>
+          <a:ext cx="5825" cy="652478"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1939,15 +1953,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>85255</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>75963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>2571750</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>3349037</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>75259</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1962,8 +1976,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19300825" y="2914650"/>
-          <a:ext cx="1762125" cy="323850"/>
+          <a:off x="27658366" y="3462630"/>
+          <a:ext cx="3263782" cy="563740"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1994,8 +2008,21 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>T2. Descripción detallada</a:t>
-          </a:r>
+            <a:t>T2. Hacer Join entre</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> tabla de Hechos_Movimiento y Fecha</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2004,15 +2031,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2159000</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2222500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>163550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2035,7 +2062,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1054100" y="7683500"/>
+          <a:off x="1117600" y="6705600"/>
           <a:ext cx="1981200" cy="2095500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2200,7 +2227,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>T3. Hacer join de tablas proveedoresCopia</a:t>
+            <a:t>T3. Hacer join de tablas resultado en T2 con tabla</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-CO" sz="1100" baseline="0">
@@ -2208,16 +2235,772 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> y</a:t>
-          </a:r>
+            <a:t> de Personas basado en PersonaContactoPrincipalID y ID_Persona</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>59266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6BFD0E1-A63A-D733-4EEF-8EE7877CF662}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9122833" y="3361266"/>
+          <a:ext cx="2192867" cy="1591733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>33867</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>55034</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCDD990-D330-E559-90E1-ED3FDC8A0448}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16171334" y="3556001"/>
+          <a:ext cx="2095500" cy="1727200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>186268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3776134</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectángulo redondeado 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC1F952-979F-9C4B-9D97-D98D52794BE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19244733" y="3886201"/>
+          <a:ext cx="3623734" cy="499533"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-CO" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> personas basado en PersonaContactoPrincipalID y  ID_persona</a:t>
-          </a:r>
+            <a:t>T3. Cambiar el tipo de dato de Fecha de STR a Date y crear una nueva columna llamada Fecha_convertida</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>135466</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3759200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectángulo redondeado 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C440891-B777-734B-A5AC-10B22ED2AE02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19227799" y="4563534"/>
+          <a:ext cx="3623734" cy="499533"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T4. Crear columna ID_Fecha e insertar los valores en formato de numero YYYYMMDD</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160866</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3784600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectángulo redondeado 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0325AE31-7D25-254A-A210-6D78B90B6363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19253199" y="5207001"/>
+          <a:ext cx="3623734" cy="499533"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T5. Crear columnas Dia, Mes, Anioa, Numero_semana_ISO e</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> insertar datos con base en la columna </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Fecha_convertida</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>138437</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>168467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2475237</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>136192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181AF917-85F7-1D74-9133-331520D30081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23939178" y="9265430"/>
+          <a:ext cx="2336800" cy="1877429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106377</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3840176</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>11652</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectángulo redondeado 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFA9F8B-060F-1A43-9AFC-AED19E0552EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4487294" y="7383419"/>
+          <a:ext cx="3733799" cy="318141"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T5. Multiplicar por -1 dias de pago que sean negativos</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>130611</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>160498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3864410</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>174771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectángulo redondeado 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF92759D-8EB3-8548-99A0-D1CEF74AA9FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4511528" y="7850406"/>
+          <a:ext cx="3733799" cy="573539"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T6. Para los datos de la columna del nombre de proveedor eliminar </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>“Inc” o “Ltd” y quitar duplicados</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>105364</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>96426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3341512</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>103481</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectángulo redondeado 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C556E0DD-B88A-8943-B829-265C83E0898C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27678475" y="5016500"/>
+          <a:ext cx="3236148" cy="759648"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T4. Hacer mapping de IDs de proveedores Transaccionales que se eliminaron por estar repetidos</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>124179</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>77611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3360327</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>56445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectángulo redondeado 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9820DD9D-5F3B-8641-9BBF-7BC4FFD66E0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27697290" y="5938426"/>
+          <a:ext cx="3236148" cy="750241"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T5. Hacer Join entre</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> tabla de Hechos_Movimiento y Proveedor, despues join con Cliente, y fnalmente join con TipoTransaccion </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>77141</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3313289</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectángulo redondeado 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4966AB79-96CB-D740-A6FF-3213E3914266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27650252" y="6832129"/>
+          <a:ext cx="3236148" cy="1013649"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T6. Filtrar la</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> tabla Hecho_Movimiento para dejar las columnas </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID_Fecha, ID_Producto_DWH,  ID_Proveedor_DWH, ID_Cliente_DWH, ID_Tipo_transaccion_DWH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> y Cantidad</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2538,10 +3321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2552,7 +3335,7 @@
     <col min="8" max="8" width="45.33203125" customWidth="1"/>
     <col min="10" max="10" width="27.1640625" customWidth="1"/>
     <col min="12" max="12" width="51.1640625" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="14" max="14" width="38" customWidth="1"/>
     <col min="16" max="16" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2563,7 +3346,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -2580,22 +3363,22 @@
     </row>
     <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="J4" s="13" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="N4" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
@@ -2628,19 +3411,19 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4"/>
       <c r="F7" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H7" s="4"/>
       <c r="J7" s="2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L7" s="4"/>
       <c r="N7" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="P7" s="4"/>
     </row>
@@ -2651,162 +3434,174 @@
       <c r="H8" s="4"/>
       <c r="J8" s="1"/>
       <c r="L8" s="4"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4"/>
       <c r="F9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="4"/>
       <c r="J9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" s="4"/>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J11" s="2"/>
       <c r="N11" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
       <c r="D12" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1"/>
       <c r="H12" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1"/>
       <c r="L12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="P12" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="D13" s="4"/>
       <c r="F13" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H13" s="4"/>
       <c r="J13" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L13" s="4"/>
-      <c r="N13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P13" s="4"/>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="D14" s="4"/>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F14" s="2"/>
       <c r="H14" s="4"/>
-      <c r="J14" s="2" t="s">
-        <v>5</v>
+      <c r="J14" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="L14" s="4"/>
-      <c r="N14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="4"/>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="D15" s="4"/>
-      <c r="F15" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="H15" s="4"/>
-      <c r="J15" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="J15" s="11"/>
       <c r="L15" s="4"/>
       <c r="N15" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4"/>
       <c r="H16" s="4"/>
+      <c r="J16" s="11"/>
       <c r="L16" s="4"/>
+      <c r="N16" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4"/>
       <c r="H17" s="4"/>
+      <c r="J17" s="11"/>
       <c r="L17" s="4"/>
+      <c r="N17" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="D18" s="4"/>
       <c r="H18" s="4"/>
+      <c r="J18" s="11"/>
       <c r="L18" s="4"/>
+      <c r="N18" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D19" s="4"/>
       <c r="H19" s="4"/>
       <c r="L19" s="4"/>
+      <c r="N19" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D20" s="4"/>
       <c r="H20" s="4"/>
       <c r="L20" s="4"/>
+      <c r="N20" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2814,193 +3609,310 @@
       <c r="D21" s="4"/>
       <c r="H21" s="4"/>
       <c r="L21" s="4"/>
+      <c r="N21" s="11"/>
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="N22" s="11"/>
+      <c r="P22" s="4"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="N23" s="1"/>
+      <c r="P23" s="4"/>
     </row>
     <row r="24" spans="2:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="4"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
       <c r="D25" s="4"/>
+      <c r="H25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="N25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" s="4"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="D26" s="4"/>
-      <c r="H26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="H26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="N26" s="11"/>
+      <c r="P26" s="4"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
       <c r="D27" s="4"/>
-      <c r="H27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="H27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="N27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" s="4"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="D28" s="4"/>
-      <c r="H28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="H28" s="6"/>
+      <c r="L28" s="4"/>
+      <c r="N28" s="11"/>
+      <c r="P28" s="4"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
       <c r="D29" s="4"/>
-      <c r="H29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="N29" s="11"/>
+      <c r="P29" s="4"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
       <c r="D30" s="4"/>
-      <c r="H30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="H30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="N30" s="11"/>
+      <c r="P30" s="4"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D31" s="4"/>
       <c r="H31" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="N31" s="11"/>
+      <c r="P31" s="4"/>
     </row>
     <row r="32" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D32" s="4"/>
       <c r="H32" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="N32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P32" s="4"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="9"/>
       <c r="D33" s="4"/>
       <c r="H33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="P33" s="6"/>
+      <c r="N33" s="11"/>
+      <c r="P33" s="4"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="9"/>
       <c r="D34" s="4"/>
       <c r="H34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="P34" s="6"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="N34" s="11"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="4"/>
-      <c r="H35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="P35" s="6"/>
+      <c r="L35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="P35" s="4"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D36" s="4"/>
+      <c r="L36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P36" s="4"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D37" s="4"/>
+      <c r="L37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="11"/>
+      <c r="P37" s="4"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D38" s="4"/>
+      <c r="L38" s="6"/>
+      <c r="N38" s="11"/>
+      <c r="P38" s="4"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D39" s="4"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D42" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="L39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N39" s="11"/>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D40" s="4"/>
+      <c r="L40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N40" s="11"/>
+      <c r="P40" s="4"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D41" s="4"/>
+      <c r="L41" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="4"/>
+      <c r="L42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="P42" s="4"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D43" s="6" t="s">
-        <v>10</v>
+      <c r="D43" s="4"/>
+      <c r="L43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D44" s="8" t="s">
-        <v>23</v>
+      <c r="D44" s="4"/>
+      <c r="L44" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N44" s="11"/>
+      <c r="P44" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D45" s="6"/>
+      <c r="D45" s="4"/>
+      <c r="L45" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N45" s="11"/>
+      <c r="P45" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D46" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" ht="32" x14ac:dyDescent="0.2">
-      <c r="D47" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="D46" s="4"/>
+      <c r="L46" s="8"/>
+      <c r="N46" s="11"/>
+      <c r="P46" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D47" s="4"/>
+      <c r="N47" s="11"/>
+      <c r="P47" s="6"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D51" s="6"/>
+      <c r="P48" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="P49" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P50" s="15"/>
+    </row>
+    <row r="51" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P51" s="15"/>
+    </row>
+    <row r="52" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P52" s="15"/>
+    </row>
+    <row r="53" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D53" s="6"/>
+      <c r="P53" s="15"/>
+    </row>
+    <row r="54" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D54" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="4:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="D55" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D59" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
+    <mergeCell ref="P49:P53"/>
+    <mergeCell ref="N32:N34"/>
+    <mergeCell ref="N36:N40"/>
+    <mergeCell ref="N43:N47"/>
+    <mergeCell ref="N20:N22"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B2:N2"/>
@@ -3009,6 +3921,9 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="N27:N31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
